--- a/T07_TaskManagement_v1.0.xlsx
+++ b/T07_TaskManagement_v1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Thái Trung Đức</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>Họp nhóm: Phân tích cụ thể từng chức năng, người sử dụng, luồng hoạt động của website =&gt; đặc tả chức năng</t>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa tài liệu SRS</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>Vẽ sequence diagram cho các giao diện: Xem, Thêm, Sửa, Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Vẽ sequence diagram cho các giao diện: Xem, Thêm, Sửa, Xóa phiên đấu giá</t>
+  </si>
+  <si>
+    <t>Vẽ sequence diagram cho các giao diện: Đăng ký, Đăng nhập, Cập nhật thông tin cá nhân, Xem chi tiết phiên đấu giá, Đấu giá</t>
+  </si>
+  <si>
+    <t>Vẽ sequence diagram cho các giao diện: Thêm, Sửa thành viên; Nạp tiền; Rút tiền</t>
+  </si>
+  <si>
+    <t>Vẽ Database Design</t>
+  </si>
+  <si>
+    <t>Vẽ Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -84,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -92,25 +122,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,24 +503,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -442,61 +532,108 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
